--- a/data/trans_orig/P78DS_2023_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS_2023_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F828309-39F2-44F6-8C2F-E13114CDE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3B0188-B42E-4588-B8AC-FFA6E420CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE64133-D744-403B-995A-A82B01AF8B95}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3200605B-97B9-4045-971A-4D3728232CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>3 o más retrasos</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>2 retrasos</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>1 retraso</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>Ningún retraso</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,307 +194,307 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
     <t>0,01%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -909,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029BA734-E18B-41A0-A3AA-06F7F26DFBC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC50F2-3013-4E72-97C3-5E0F3F5DC5C9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>4236</v>
+        <v>4075</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6845</v>
+        <v>6354</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1060,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>11081</v>
+        <v>10429</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1081,7 +1081,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>38541</v>
+        <v>33355</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1096,7 +1096,7 @@
         <v>77</v>
       </c>
       <c r="I5" s="7">
-        <v>50188</v>
+        <v>43767</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1111,7 +1111,7 @@
         <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>88729</v>
+        <v>77122</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1132,7 +1132,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>63184</v>
+        <v>56559</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1147,7 +1147,7 @@
         <v>173</v>
       </c>
       <c r="I6" s="7">
-        <v>112709</v>
+        <v>97801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1162,7 +1162,7 @@
         <v>249</v>
       </c>
       <c r="N6" s="7">
-        <v>175893</v>
+        <v>154359</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1183,7 +1183,7 @@
         <v>539</v>
       </c>
       <c r="D7" s="7">
-        <v>412875</v>
+        <v>398161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1198,7 +1198,7 @@
         <v>1098</v>
       </c>
       <c r="I7" s="7">
-        <v>623045</v>
+        <v>568166</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1213,7 +1213,7 @@
         <v>1637</v>
       </c>
       <c r="N7" s="7">
-        <v>1035920</v>
+        <v>966327</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1234,7 +1234,7 @@
         <v>662</v>
       </c>
       <c r="D8" s="7">
-        <v>518836</v>
+        <v>492149</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1249,7 +1249,7 @@
         <v>1359</v>
       </c>
       <c r="I8" s="7">
-        <v>792787</v>
+        <v>716087</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1264,7 +1264,7 @@
         <v>2021</v>
       </c>
       <c r="N8" s="7">
-        <v>1311623</v>
+        <v>1208236</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1287,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>12450</v>
+        <v>11892</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1302,31 +1302,31 @@
         <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>8834</v>
+        <v>10301</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>21284</v>
+        <v>22192</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,46 +1338,46 @@
         <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>76235</v>
+        <v>67567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>73407</v>
+        <v>62550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
       </c>
       <c r="N10" s="7">
-        <v>149642</v>
+        <v>130118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,46 +1389,46 @@
         <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>221879</v>
+        <v>202247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
       </c>
       <c r="I11" s="7">
-        <v>214092</v>
+        <v>185722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
       </c>
       <c r="N11" s="7">
-        <v>435971</v>
+        <v>387969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,46 +1440,46 @@
         <v>1660</v>
       </c>
       <c r="D12" s="7">
-        <v>1786629</v>
+        <v>1943248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>2487</v>
       </c>
       <c r="I12" s="7">
-        <v>1865424</v>
+        <v>1843926</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>4147</v>
       </c>
       <c r="N12" s="7">
-        <v>3652052</v>
+        <v>3787173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>1942</v>
       </c>
       <c r="D13" s="7">
-        <v>2097193</v>
+        <v>2224954</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1506,7 +1506,7 @@
         <v>2837</v>
       </c>
       <c r="I13" s="7">
-        <v>2161756</v>
+        <v>2102499</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1521,7 +1521,7 @@
         <v>4779</v>
       </c>
       <c r="N13" s="7">
-        <v>4258948</v>
+        <v>4327452</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1544,46 +1544,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>999</v>
+        <v>941</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>2206</v>
+        <v>2128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,46 +1595,46 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>5109</v>
+        <v>4315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>5170</v>
+        <v>4730</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>10279</v>
+        <v>9044</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,46 +1646,46 @@
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>31823</v>
+        <v>29034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>39507</v>
+        <v>34647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
       </c>
       <c r="N16" s="7">
-        <v>71330</v>
+        <v>63681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,46 +1697,46 @@
         <v>639</v>
       </c>
       <c r="D17" s="7">
-        <v>628478</v>
+        <v>606198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>925</v>
       </c>
       <c r="I17" s="7">
-        <v>651013</v>
+        <v>604750</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1564</v>
       </c>
       <c r="N17" s="7">
-        <v>1279491</v>
+        <v>1210948</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1748,7 @@
         <v>675</v>
       </c>
       <c r="D18" s="7">
-        <v>666616</v>
+        <v>640734</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1763,7 +1763,7 @@
         <v>980</v>
       </c>
       <c r="I18" s="7">
-        <v>696690</v>
+        <v>645067</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1778,7 +1778,7 @@
         <v>1655</v>
       </c>
       <c r="N18" s="7">
-        <v>1363306</v>
+        <v>1285801</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1801,28 +1801,28 @@
         <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>17893</v>
+        <v>17153</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>16678</v>
+        <v>17595</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>123</v>
@@ -1831,10 +1831,10 @@
         <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>34571</v>
+        <v>34749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>124</v>
@@ -1852,7 +1852,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="7">
-        <v>119885</v>
+        <v>105237</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>126</v>
@@ -1867,7 +1867,7 @@
         <v>167</v>
       </c>
       <c r="I20" s="7">
-        <v>128765</v>
+        <v>111047</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>129</v>
@@ -1882,7 +1882,7 @@
         <v>285</v>
       </c>
       <c r="N20" s="7">
-        <v>248650</v>
+        <v>216284</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -1903,7 +1903,7 @@
         <v>308</v>
       </c>
       <c r="D21" s="7">
-        <v>316886</v>
+        <v>287840</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>135</v>
@@ -1918,7 +1918,7 @@
         <v>478</v>
       </c>
       <c r="I21" s="7">
-        <v>366308</v>
+        <v>318169</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>138</v>
@@ -1933,7 +1933,7 @@
         <v>786</v>
       </c>
       <c r="N21" s="7">
-        <v>683194</v>
+        <v>606009</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>141</v>
@@ -1954,7 +1954,7 @@
         <v>2838</v>
       </c>
       <c r="D22" s="7">
-        <v>2827980</v>
+        <v>2947606</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>144</v>
@@ -1969,7 +1969,7 @@
         <v>4510</v>
       </c>
       <c r="I22" s="7">
-        <v>3139482</v>
+        <v>3016842</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>147</v>
@@ -1984,7 +1984,7 @@
         <v>7348</v>
       </c>
       <c r="N22" s="7">
-        <v>5967464</v>
+        <v>5964448</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>150</v>
@@ -2005,7 +2005,7 @@
         <v>3279</v>
       </c>
       <c r="D23" s="7">
-        <v>3282644</v>
+        <v>3357836</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2020,7 +2020,7 @@
         <v>5176</v>
       </c>
       <c r="I23" s="7">
-        <v>3651233</v>
+        <v>3463653</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2035,7 +2035,7 @@
         <v>8455</v>
       </c>
       <c r="N23" s="7">
-        <v>6933878</v>
+        <v>6821489</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
